--- a/TestProject_LineList.xlsx
+++ b/TestProject_LineList.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Demo\ACCE_Demo\ACCE_OptiPlant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JINXI\Documents\GitHub\testproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_12414DB9DF3CBA2A72EFC04E7B4F2EC5C2DB4683" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2518B-E5CE-41D0-BB3B-291FF1E1E82D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>##!!!Mode 5</t>
   </si>
@@ -163,13 +163,16 @@
   </si>
   <si>
     <t>BRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,52 +503,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -613,7 +618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -663,7 +668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -713,7 +718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -761,6 +766,11 @@
       </c>
       <c r="P11" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -778,15 +788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F647922BB66C5D47A63E1F0DCA8B593D" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="feccd70649263b89fd790a88e851deff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dcb82b24-b6da-450d-9baf-3d6376068ee5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2acb7e7f8e7d435a8d2da474e1264ce" ns2:_="">
     <xsd:import namespace="dcb82b24-b6da-450d-9baf-3d6376068ee5"/>
@@ -964,6 +965,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -971,13 +981,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E26595-EF8A-4026-9EB2-FF327B95A294}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B6A170-9E3E-4B18-83F4-41E1DE4E3A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dcb82b24-b6da-450d-9baf-3d6376068ee5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09B6A170-9E3E-4B18-83F4-41E1DE4E3A30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93E26595-EF8A-4026-9EB2-FF327B95A294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635B07C2-625A-43E1-A7DD-0D8DCD49497E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{635B07C2-625A-43E1-A7DD-0D8DCD49497E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>